--- a/data/trans_bre/P21D_6_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21D_6_R-Clase-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.131012178400628</v>
+        <v>1.101956981811472</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.228721170346994</v>
+        <v>-2.457703321451048</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.272452904309733</v>
+        <v>0.3334172730448517</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.5267679226221417</v>
+        <v>-0.5267679226221418</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>-1</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.175254000571</v>
+        <v>-2.86800294317566</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.73480151125964</v>
+        <v>0.7348015112596404</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.7727975611710924</v>
+        <v>0.7727975611710929</v>
       </c>
     </row>
     <row r="14">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.652830761115518</v>
+        <v>-0.8178503943558046</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5775642661698617</v>
+        <v>-0.5896520705703568</v>
       </c>
     </row>
     <row r="15">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.210819956585314</v>
+        <v>2.075910040348924</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.408567200015127</v>
+        <v>6.5784479567872</v>
       </c>
     </row>
     <row r="16">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.913630381934365</v>
+        <v>1.913630381934364</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>3.999574482644198</v>
+        <v>3.999574482644197</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3738726453407049</v>
+        <v>0.2684798600775391</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.35130922918758</v>
+        <v>3.398223786988641</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1715357038289248</v>
+        <v>0.1716595658512705</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.643168783643078</v>
+        <v>1.755047029051796</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6019502872753861</v>
+        <v>0.6019502872753859</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1.06245554516067</v>
+        <v>1.062455545160669</v>
       </c>
     </row>
     <row r="23">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003104009110855026</v>
+        <v>-0.02946419430156658</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.126161560366596</v>
+        <v>-0.114387762192132</v>
       </c>
     </row>
     <row r="24">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.160643276195362</v>
+        <v>1.140104958746417</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>3.770865571819075</v>
+        <v>4.301896060663615</v>
       </c>
     </row>
     <row r="25">
